--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P32_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P32_trail3 Features.xlsx
@@ -5441,7 +5441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5452,29 +5452,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5495,115 +5493,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5620,72 +5608,66 @@
         <v>2.368556278390259e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.140727198671017</v>
+        <v>1.017186386711766e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0854102243542334</v>
+        <v>2.032666756607405e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.017186386711766e-06</v>
+        <v>-0.03044275821619779</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.032666756607405e-06</v>
+        <v>0.2596760148960268</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.03044275821619779</v>
+        <v>0.06823465192055163</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2596760148960268</v>
+        <v>1.34849882834787</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06823465192055163</v>
+        <v>1.320379295374452</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.279744680733162</v>
+        <v>3.459748142537706</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.320379295374452</v>
+        <v>5.533904197976941e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.459748142537706</v>
+        <v>4552019.915905727</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.533904197976941e-14</v>
+        <v>1.718722087657089e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>4552019.915905727</v>
+        <v>1.146673942293837</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.718722087657089e-05</v>
+        <v>0.0001721048070313433</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1.146673942293837</v>
+        <v>10.27881125177885</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001721048070313433</v>
+        <v>1.184721831105157</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.27881125177885</v>
+        <v>0.01818355452692346</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.184721831105157</v>
+        <v>2.703246063920683</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01818355452692346</v>
+        <v>0.9096603165760628</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.703246063920683</v>
+        <v>1.935386016571881</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9096603165760628</v>
+        <v>10</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.935386016571881</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1408138772543384</v>
       </c>
     </row>
@@ -5700,72 +5682,66 @@
         <v>2.266017975356464e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.069159634524711</v>
+        <v>7.765791842203029e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.1363295160280331</v>
+        <v>2.027651010789305e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.765791842203029e-07</v>
+        <v>-0.01365977260676588</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.027651010789305e-06</v>
+        <v>0.2207963678890967</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.01365977260676588</v>
+        <v>0.04886296234204222</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2207963678890967</v>
+        <v>1.339848983492365</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04886296234204222</v>
+        <v>1.304751038920317</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.274564991623742</v>
+        <v>3.478631653274612</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.304751038920317</v>
+        <v>5.47398643980354e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.478631653274612</v>
+        <v>4509184.964283184</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.47398643980354e-14</v>
+        <v>1.671257480679781e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>4509184.964283184</v>
+        <v>1.113011925404799</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.671257480679781e-05</v>
+        <v>0.0001737675581310866</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1.113011925404799</v>
+        <v>11.3570483813948</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001737675581310866</v>
+        <v>1.082170633596352</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.3570483813948</v>
+        <v>0.02241298239659778</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.082170633596352</v>
+        <v>2.478099164899883</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02241298239659778</v>
+        <v>0.9125414320409233</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.478099164899883</v>
+        <v>1.958823236506464</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9125414320409233</v>
+        <v>10</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.958823236506464</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1492397067415266</v>
       </c>
     </row>
@@ -5780,72 +5756,66 @@
         <v>2.242118588050408e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.07458656877484</v>
+        <v>7.765791842203029e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.08882171075427792</v>
+        <v>2.026100889880185e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.765791842203029e-07</v>
+        <v>-0.0009520258913479985</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.026100889880185e-06</v>
+        <v>0.1903157206083019</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.0009520258913479985</v>
+        <v>0.03618135349829086</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1903157206083019</v>
+        <v>1.339922733074037</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03618135349829086</v>
+        <v>1.286498250035347</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.276685458504317</v>
+        <v>3.516234324583833</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.286498250035347</v>
+        <v>5.357534642616374e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.516234324583833</v>
+        <v>4590820.321082309</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.357534642616374e-14</v>
+        <v>1.638312110576549e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>4590820.321082309</v>
+        <v>1.129134243786338</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.638312110576549e-05</v>
+        <v>0.0001764606590141257</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1.129134243786338</v>
+        <v>10.98255698559825</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001764606590141257</v>
+        <v>1.112934674718853</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.98255698559825</v>
+        <v>0.02128407730244542</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.112934674718853</v>
+        <v>2.575136603979648</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02128407730244542</v>
+        <v>0.9140582156911969</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.575136603979648</v>
+        <v>1.938240354047039</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9140582156911969</v>
+        <v>10</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.938240354047039</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1433038459382087</v>
       </c>
     </row>
@@ -5860,72 +5830,66 @@
         <v>2.249739300413744e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.062229925260773</v>
+        <v>7.765791842203029e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.1316319486569397</v>
+        <v>2.026938424837622e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.765791842203029e-07</v>
+        <v>0.007682780918295021</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.026938424837622e-06</v>
+        <v>0.1708733303956023</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.007682780918295021</v>
+        <v>0.02923778406666822</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1708733303956023</v>
+        <v>1.349154396859927</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02923778406666822</v>
+        <v>1.269129223487748</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.287191464568978</v>
+        <v>3.593506251819017</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.269129223487748</v>
+        <v>5.129603495188856e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.593506251819017</v>
+        <v>4791470.272728421</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.129603495188856e-14</v>
+        <v>1.577512871165599e-05</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>4791470.272728421</v>
+        <v>1.177663981991289</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.577512871165599e-05</v>
+        <v>0.0001937534718088091</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1.177663981991289</v>
+        <v>9.924393243840814</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001937534718088091</v>
+        <v>1.311728739253167</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.924393243840814</v>
+        <v>0.01908347331969674</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.311728739253167</v>
+        <v>2.649203755705973</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01908347331969674</v>
+        <v>0.919358990761062</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.649203755705973</v>
+        <v>1.94870196415183</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.919358990761062</v>
+        <v>10</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.94870196415183</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1291681329815051</v>
       </c>
     </row>
@@ -5940,72 +5904,66 @@
         <v>2.265274866916581e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.023754676055113</v>
+        <v>7.765791842203029e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.2382289293007731</v>
+        <v>2.029331472110207e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.765791842203029e-07</v>
+        <v>0.01294487114808038</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.029331472110207e-06</v>
+        <v>0.1606738828360829</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01294487114808038</v>
+        <v>0.0259758912521008</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1606738828360829</v>
+        <v>1.357197303878567</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0259758912521008</v>
+        <v>1.246757230557333</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.298556303714537</v>
+        <v>3.75417084900977</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.246757230557333</v>
+        <v>4.699942448004101e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.75417084900977</v>
+        <v>5207997.31567822</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.699942448004101e-14</v>
+        <v>1.453699335589935e-05</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>5207997.31567822</v>
+        <v>1.274776483921549</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.453699335589935e-05</v>
+        <v>0.0002266494014006047</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1.274776483921549</v>
+        <v>9.465691722446149</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002266494014006047</v>
+        <v>1.528882745385564</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.465691722446149</v>
+        <v>0.02030763219503234</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.528882745385564</v>
+        <v>2.535469595843247</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02030763219503234</v>
+        <v>0.9202996400630402</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.535469595843247</v>
+        <v>1.955046276165697</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9202996400630402</v>
+        <v>10</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.955046276165697</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1166465959500848</v>
       </c>
     </row>
@@ -6020,72 +5978,66 @@
         <v>2.279329432850383e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.9722587767626774</v>
+        <v>7.765791842203029e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.3540494218566468</v>
+        <v>2.032653300113299e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>7.765791842203029e-07</v>
+        <v>0.01604271007889345</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.032653300113299e-06</v>
+        <v>0.1557267674907541</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01604271007889345</v>
+        <v>0.02450418055455962</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1557267674907541</v>
+        <v>1.381921721341826</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02450418055455962</v>
+        <v>1.225130690041427</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.323536210448707</v>
+        <v>4.114688036522277</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.225130690041427</v>
+        <v>3.912431783758903e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.114688036522277</v>
+        <v>6279786.342347446</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.912431783758903e-14</v>
+        <v>1.231346648457841e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>6279786.342347446</v>
+        <v>1.542895506715549</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.231346648457841e-05</v>
+        <v>0.0002206611661451514</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1.542895506715549</v>
+        <v>10.69194537817492</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0002206611661451514</v>
+        <v>1.246596457271344</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.69194537817492</v>
+        <v>0.02522547610373971</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.246596457271344</v>
+        <v>2.368926465086187</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02522547610373971</v>
+        <v>0.9241060113360118</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.368926465086187</v>
+        <v>1.932845774869435</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9241060113360118</v>
+        <v>10</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.932845774869435</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1187938442449015</v>
       </c>
     </row>
@@ -6100,72 +6052,66 @@
         <v>2.289224449803757e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.9158959255111535</v>
+        <v>7.765791842203029e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.4588601039622002</v>
+        <v>2.036630378842684e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.765791842203029e-07</v>
+        <v>0.01876125543874321</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.036630378842684e-06</v>
+        <v>0.1521844055333317</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.01876125543874321</v>
+        <v>0.02350899452836249</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1521844055333317</v>
+        <v>1.456847776205064</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02350899452836249</v>
+        <v>1.304400652736427</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.398042047949073</v>
+        <v>3.072384375369787</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.304400652736427</v>
+        <v>3.155288950792961e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.072384375369787</v>
+        <v>7238174.366169571</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.155288950792961e-14</v>
+        <v>1.163003320795625e-05</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>7238174.366169571</v>
+        <v>1.653092739988419</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.163003320795625e-05</v>
+        <v>0.0002245456489076082</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1.653092739988419</v>
+        <v>13.04150136848738</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0002245456489076082</v>
+        <v>0.9972685699109785</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>13.04150136848738</v>
+        <v>0.03819089415929133</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>0.9972685699109785</v>
+        <v>2.014505651365557</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.03819089415929133</v>
+        <v>0.9318401094938676</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.014505651365557</v>
+        <v>1.908666413822013</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9318401094938676</v>
+        <v>10</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.908666413822013</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.125463412895965</v>
       </c>
     </row>
@@ -6180,72 +6126,66 @@
         <v>2.293995693199648e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.8578226000801663</v>
+        <v>7.765791842203029e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.5483917781870251</v>
+        <v>2.041274025816549e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>7.765791842203029e-07</v>
+        <v>0.02177385959388424</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.041274025816549e-06</v>
+        <v>0.1491884643608343</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.02177385959388424</v>
+        <v>0.02272902504857563</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1491884643608343</v>
+        <v>1.600528127461438</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02272902504857563</v>
+        <v>1.278711078310953</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.536285042146923</v>
+        <v>3.242231646852431</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.278711078310953</v>
+        <v>3.102360368741424e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.242231646852431</v>
+        <v>5738797.997495349</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.102360368741424e-14</v>
+        <v>1.872655982715218e-05</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>5738797.997495349</v>
+        <v>1.021725235316291</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.872655982715218e-05</v>
+        <v>0.0002311370078144776</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1.021725235316291</v>
+        <v>12.84600521005583</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0002311370078144776</v>
+        <v>1.047114461537031</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>12.84600521005583</v>
+        <v>0.03814219432589085</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.047114461537031</v>
+        <v>2.170370681598302</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.03814219432589085</v>
+        <v>0.9392272256385336</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.170370681598302</v>
+        <v>1.799225266093349</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9392272256385336</v>
+        <v>9</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.799225266093349</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1173951441503626</v>
       </c>
     </row>
@@ -6260,72 +6200,66 @@
         <v>2.293361447173335e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.7999032303127824</v>
+        <v>7.765791842203029e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.6240251216777786</v>
+        <v>2.046647695124836e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>7.765791842203029e-07</v>
+        <v>0.02511675462915555</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.046647695124836e-06</v>
+        <v>0.1470749455465326</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.02511675462915555</v>
+        <v>0.02226018557022353</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1470749455465326</v>
+        <v>1.644128050868988</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.02226018557022353</v>
+        <v>1.254955129601923</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.579364089313994</v>
+        <v>3.87318959433788</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.254955129601923</v>
+        <v>2.443678669285228e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.87318959433788</v>
+        <v>7027847.120174155</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.443678669285228e-14</v>
+        <v>1.57151115098476e-05</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>7027847.120174155</v>
+        <v>1.206948415651621</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.57151115098476e-05</v>
+        <v>0.0002619149279505414</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1.206948415651621</v>
+        <v>12.13711628779933</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0002619149279505414</v>
+        <v>1.260356822475379</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>12.13711628779933</v>
+        <v>0.03858258111841574</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.260356822475379</v>
+        <v>2.247804900796442</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.03858258111841574</v>
+        <v>0.9422943283116756</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.247804900796442</v>
+        <v>1.807542631635692</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9422943283116756</v>
+        <v>9</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.807542631635692</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1104255077802025</v>
       </c>
     </row>
@@ -6340,72 +6274,66 @@
         <v>2.288043625635422e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.7426542750074833</v>
+        <v>7.765791842203029e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.6919005830740677</v>
+        <v>2.052837137827707e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>7.765791842203029e-07</v>
+        <v>0.02902077608712032</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.052837137827707e-06</v>
+        <v>0.1460727407957187</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.02902077608712032</v>
+        <v>0.02217751452775654</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1460727407957187</v>
+        <v>1.683448669291963</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.02217751452775654</v>
+        <v>1.251769742309396</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.614721147398049</v>
+        <v>4.790194789150934</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.251769742309396</v>
+        <v>1.475852737331934e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.790194789150934</v>
+        <v>11153722.77892265</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.475852737331934e-14</v>
+        <v>1.010355624285638e-05</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>11153722.77892265</v>
+        <v>1.836042446891502</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.010355624285638e-05</v>
+        <v>0.0003109589684845287</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>1.836042446891502</v>
+        <v>11.71388862794076</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0003109589684845287</v>
+        <v>1.45938833234347</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>11.71388862794076</v>
+        <v>0.04266829294394615</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.45938833234347</v>
+        <v>2.17724009935578</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.04266829294394615</v>
+        <v>0.9446720468014354</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.17724009935578</v>
+        <v>1.803982753107199</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9446720468014354</v>
+        <v>9</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.803982753107199</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1171865019969733</v>
       </c>
     </row>
@@ -6420,72 +6348,66 @@
         <v>2.280048842378077e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.6851630682473938</v>
+        <v>7.765791842203029e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.7620939198057819</v>
+        <v>2.059991426911321e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>7.765791842203029e-07</v>
+        <v>0.03380497068079372</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.059991426911321e-06</v>
+        <v>0.1466594878570104</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.03380497068079372</v>
+        <v>0.02264819244936005</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1466594878570104</v>
+        <v>1.726606357539217</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.02264819244936005</v>
+        <v>1.269072302278483</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.656028400975347</v>
+        <v>5.622306780241809</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.269072302278483</v>
+        <v>8.094661795277975e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>5.622306780241809</v>
+        <v>19109006.52599341</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>8.094661795277975e-15</v>
+        <v>6.046682895038257e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>19109006.52599341</v>
+        <v>2.955799188821492</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>6.046682895038257e-06</v>
+        <v>0.0002825918739519723</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>2.955799188821492</v>
+        <v>12.29610380262399</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0002825918739519723</v>
+        <v>1.265087716112729</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>12.29610380262399</v>
+        <v>0.04272624347058134</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.265087716112729</v>
+        <v>2.141413550517529</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.04272624347058134</v>
+        <v>0.9473832128721016</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.141413550517529</v>
+        <v>1.79320618063394</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9473832128721016</v>
+        <v>9</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.79320618063394</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1486923004021859</v>
       </c>
     </row>
@@ -6500,72 +6422,66 @@
         <v>2.273403025420307e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.6263573763505235</v>
+        <v>7.765791842203029e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.8466344882962709</v>
+        <v>2.068344277324893e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>7.765791842203029e-07</v>
+        <v>0.03982090738183631</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.068344277324893e-06</v>
+        <v>0.1496593074909102</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.03982090738183631</v>
+        <v>0.02397637295840034</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1496593074909102</v>
+        <v>1.803425224473982</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02397637295840034</v>
+        <v>1.335106369299481</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.749586859021337</v>
+        <v>4.460124171820081</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.335106369299481</v>
+        <v>6.695389603834839e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.460124171820081</v>
+        <v>21606041.38242767</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>6.695389603834839e-15</v>
+        <v>5.457630702568375e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>21606041.38242767</v>
+        <v>3.125548632408608</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.457630702568375e-06</v>
+        <v>0.0002651523143572126</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>3.125548632408608</v>
+        <v>13.62231216937</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0002651523143572126</v>
+        <v>1.042827200551028</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>13.62231216937</v>
+        <v>0.04920362262008873</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.042827200551028</v>
+        <v>1.991280058487457</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.04920362262008873</v>
+        <v>0.9540989496880932</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>1.991280058487457</v>
+        <v>1.704416926769086</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9540989496880932</v>
+        <v>9</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.704416926769086</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1492352801039881</v>
       </c>
     </row>
@@ -6580,72 +6496,66 @@
         <v>2.275081506082732e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.5691697813876075</v>
+        <v>7.765791842203029e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.9500470991492289</v>
+        <v>2.078198214717788e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>7.765791842203029e-07</v>
+        <v>0.04711190263840017</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.078198214717788e-06</v>
+        <v>0.155770726651233</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.04711190263840017</v>
+        <v>0.02647111330776212</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.155770726651233</v>
+        <v>1.827099573583888</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02647111330776212</v>
+        <v>1.378404729005455</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.786097900522108</v>
+        <v>3.436755429842739</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.378404729005455</v>
+        <v>7.627921721261559e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.436755429842739</v>
+        <v>18691511.12409107</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>7.627921721261559e-15</v>
+        <v>6.298660040069403e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>18691511.12409107</v>
+        <v>2.664986753596767</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>6.298660040069403e-06</v>
+        <v>0.0002612716165662404</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>2.664986753596767</v>
+        <v>14.25735662964702</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0002612716165662404</v>
+        <v>0.9723663057898395</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>14.25735662964702</v>
+        <v>0.05310926101683215</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>0.9723663057898395</v>
+        <v>1.903703705248835</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.05310926101683215</v>
+        <v>0.9571068682895784</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>1.903703705248835</v>
+        <v>1.60986204246089</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9571068682895784</v>
+        <v>9</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.60986204246089</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1379958988791174</v>
       </c>
     </row>
@@ -6660,72 +6570,66 @@
         <v>2.295526085058932e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.527092655684266</v>
+        <v>7.765643771489384e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.044633654336875</v>
+        <v>2.089851573275766e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>7.765643771489384e-07</v>
+        <v>0.05484765182538234</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.089851573275766e-06</v>
+        <v>0.1635533826269143</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.05484765182538234</v>
+        <v>0.02974433081261334</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1635533826269143</v>
+        <v>1.586085088008603</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02974433081261334</v>
+        <v>1.441508495471025</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.531003715707114</v>
+        <v>5.615953188424463</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.441508495471025</v>
+        <v>8.795913412219506e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.615953188424463</v>
+        <v>22915538.16608988</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>8.795913412219506e-15</v>
+        <v>3.744623086607973e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>22915538.16608988</v>
+        <v>4.618926670388734</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.744623086607973e-06</v>
+        <v>0.0002471074586112269</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>4.618926670388734</v>
+        <v>13.29262630564198</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0002471074586112269</v>
+        <v>1.033390858533854</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>13.29262630564198</v>
+        <v>0.04366238406567853</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.033390858533854</v>
+        <v>2.067115905883459</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.04366238406567853</v>
+        <v>0.9467470627984745</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.067115905883459</v>
+        <v>1.71760253086665</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9467470627984745</v>
+        <v>1</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.71760253086665</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1302534256325055</v>
       </c>
     </row>
@@ -6740,72 +6644,66 @@
         <v>2.340738190893757e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.5165070294606</v>
+        <v>8.372434878808396e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.070960432911273</v>
+        <v>2.103196062378859e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>8.372434878808396e-07</v>
+        <v>0.05962629300234109</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.103196062378859e-06</v>
+        <v>0.1655238807084151</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.05962629300234109</v>
+        <v>0.03094909663738418</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1655238807084151</v>
+        <v>1.475808851577958</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.03094909663738418</v>
+        <v>1.282815054278216</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.41103287288689</v>
+        <v>4.894256901826102</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.282815054278216</v>
+        <v>2.756229629341499e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.894256901826102</v>
+        <v>8004286.351332726</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.756229629341499e-14</v>
+        <v>1.012113205180443e-05</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>8004286.351332726</v>
+        <v>1.765877736142534</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.012113205180443e-05</v>
+        <v>0.0003028950107395533</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>1.765877736142534</v>
+        <v>9.612738435324712</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0003028950107395533</v>
+        <v>1.863772163410277</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.612738435324712</v>
+        <v>0.0279889347831305</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.863772163410277</v>
+        <v>2.395128781750047</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0279889347831305</v>
+        <v>0.9378583963594177</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.395128781750047</v>
+        <v>1.978696263445319</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9378583963594177</v>
+        <v>1</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.978696263445319</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1043112646736853</v>
       </c>
     </row>
@@ -6820,72 +6718,66 @@
         <v>2.401067804769462e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.5240140004500619</v>
+        <v>8.612126876157242e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.044589814058205</v>
+        <v>2.117428506226758e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>8.612126876157242e-07</v>
+        <v>0.05978230956759842</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.117428506226758e-06</v>
+        <v>0.1620388137089983</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.05978230956759842</v>
+        <v>0.0298301540983977</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1620388137089983</v>
+        <v>1.445616798643607</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.0298301540983977</v>
+        <v>1.287704028282207</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.378626955513873</v>
+        <v>3.830370412175919</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.287704028282207</v>
+        <v>4.522117502720696e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.830370412175919</v>
+        <v>5065045.738104198</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>4.522117502720696e-14</v>
+        <v>1.595880732657246e-05</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>5065045.738104198</v>
+        <v>1.16013515119811</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.595880732657246e-05</v>
+        <v>0.0002316339178966909</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>1.16013515119811</v>
+        <v>9.750643736190639</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002316339178966909</v>
+        <v>1.650981005538081</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.750643736190639</v>
+        <v>0.02202260708319304</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.650981005538081</v>
+        <v>2.652091058654256</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02202260708319304</v>
+        <v>0.9361417976708702</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.652091058654256</v>
+        <v>1.950597367039906</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9361417976708702</v>
+        <v>1</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.950597367039906</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1166145661838764</v>
       </c>
     </row>
@@ -6900,72 +6792,66 @@
         <v>2.462732929618454e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.5212841195505808</v>
+        <v>8.382645037820077e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.035472690228871</v>
+        <v>2.131624412471271e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>8.382645037820077e-07</v>
+        <v>0.05650746699770224</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.131624412471271e-06</v>
+        <v>0.1580405352740939</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.05650746699770224</v>
+        <v>0.02816888114830251</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1580405352740939</v>
+        <v>1.422391778692566</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.02816888114830251</v>
+        <v>1.293322931374168</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.353293596105398</v>
+        <v>3.555062933657244</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.293322931374168</v>
+        <v>5.249631323498984e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.555062933657244</v>
+        <v>4629342.007443583</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>5.249631323498984e-14</v>
+        <v>1.793909538189749e-05</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>4629342.007443583</v>
+        <v>1.125038379297851</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.793909538189749e-05</v>
+        <v>0.0001740631594034017</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>1.125038379297851</v>
+        <v>10.5043459068004</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001740631594034017</v>
+        <v>1.188489231082403</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>10.5043459068004</v>
+        <v>0.0192063523193707</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.188489231082403</v>
+        <v>2.694588047192458</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.0192063523193707</v>
+        <v>0.9291530234955263</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.694588047192458</v>
+        <v>1.953309844125025</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9291530234955263</v>
+        <v>1</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.953309844125025</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1376475470777062</v>
       </c>
     </row>
@@ -6980,72 +6866,66 @@
         <v>2.518557838364189e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.4947160641995276</v>
+        <v>8.196335148611417e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.069435397619089</v>
+        <v>2.145057962721251e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>8.196335148611417e-07</v>
+        <v>0.05109013900409438</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.145057962721251e-06</v>
+        <v>0.15477229607291</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.05109013900409438</v>
+        <v>0.02656167710277178</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.15477229607291</v>
+        <v>1.390347676969955</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.02656167710277178</v>
+        <v>1.293025832156736</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.31997198902255</v>
+        <v>3.508788148367596</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.293025832156736</v>
+        <v>5.389011322447153e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.508788148367596</v>
+        <v>4578483.278902183</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>5.389011322447153e-14</v>
+        <v>1.796104630942804e-05</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>4578483.278902183</v>
+        <v>1.12967199076424</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.796104630942804e-05</v>
+        <v>0.0001665264613213341</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>1.12967199076424</v>
+        <v>10.92623337206835</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001665264613213341</v>
+        <v>1.102435093290546</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>10.92623337206835</v>
+        <v>0.01988035787489718</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.102435093290546</v>
+        <v>2.523198233300569</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01988035787489718</v>
+        <v>0.9261207470263892</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.523198233300569</v>
+        <v>1.967692603681707</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9261207470263892</v>
+        <v>1</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.967692603681707</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1514876431743793</v>
       </c>
     </row>
@@ -7060,72 +6940,66 @@
         <v>2.567729416514599e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.4465941420946521</v>
+        <v>8.196335148611417e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.133561439607625</v>
+        <v>2.157260886592758e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>8.196335148611417e-07</v>
+        <v>0.04494857291266215</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.157260886592758e-06</v>
+        <v>0.1519047646542551</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.04494857291266215</v>
+        <v>0.02509275118611867</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1519047646542551</v>
+        <v>1.382802576656934</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.02509275118611867</v>
+        <v>1.294828161974188</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.310131524625479</v>
+        <v>3.50858204246022</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.294828161974188</v>
+        <v>5.389644478336547e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.50858204246022</v>
+        <v>4600195.115195924</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>5.389644478336547e-14</v>
+        <v>1.783216697716116e-05</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>4600195.115195924</v>
+        <v>1.140545521009376</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.783216697716116e-05</v>
+        <v>0.000162987498591015</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>1.140545521009376</v>
+        <v>10.27420586587447</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.000162987498591015</v>
+        <v>1.147633465458271</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>10.27420586587447</v>
+        <v>0.01720484726636354</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.147633465458271</v>
+        <v>2.594313683096561</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01720484726636354</v>
+        <v>0.9213353419856521</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.594313683096561</v>
+        <v>1.963114826664556</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9213353419856521</v>
+        <v>1</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.963114826664556</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1530319011782665</v>
       </c>
     </row>
@@ -7140,72 +7014,66 @@
         <v>2.60941170415927e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.3863708652787394</v>
+        <v>8.196335148611417e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.20827387864783</v>
+        <v>2.168234888068656e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>8.196335148611417e-07</v>
+        <v>0.04014323570255712</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.168234888068656e-06</v>
+        <v>0.1503847312052445</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.04014323570255712</v>
+        <v>0.02422599915611041</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1503847312052445</v>
+        <v>1.380181581480862</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.02422599915611041</v>
+        <v>1.295654837992309</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.305494379968292</v>
+        <v>3.513092353091522</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.295654837992309</v>
+        <v>5.375814289022758e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.513092353091522</v>
+        <v>4619534.43192482</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>5.375814289022758e-14</v>
+        <v>1.776169386886249e-05</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>4619534.43192482</v>
+        <v>1.147204057344424</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.776169386886249e-05</v>
+        <v>0.000165428974839064</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>1.147204057344424</v>
+        <v>8.804690106378597</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.000165428974839064</v>
+        <v>1.330890954722422</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.804690106378597</v>
+        <v>0.01282447892952018</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.330890954722422</v>
+        <v>2.777235099377548</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01282447892952018</v>
+        <v>0.9201311793123128</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.777235099377548</v>
+        <v>1.958345957701758</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9201311793123128</v>
+        <v>4</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.958345957701758</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1421925746225109</v>
       </c>
     </row>
@@ -7220,72 +7088,66 @@
         <v>2.641868885894904e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.3211039891304979</v>
+        <v>8.196335148611417e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.278302903148123</v>
+        <v>2.178356329024661e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>8.196335148611417e-07</v>
+        <v>0.03718056217241204</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.178356329024661e-06</v>
+        <v>0.1496677790492134</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.03718056217241204</v>
+        <v>0.02378239956318781</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1496677790492134</v>
+        <v>1.37607673245034</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.02378239956318781</v>
+        <v>1.287748340572855</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.300198158514917</v>
+        <v>3.515624775204198</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.287748340572855</v>
+        <v>5.368072320752281e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.515624775204198</v>
+        <v>4604891.56808957</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>5.368072320752281e-14</v>
+        <v>1.768153737419825e-05</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>4604891.56808957</v>
+        <v>1.138301150309915</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.768153737419825e-05</v>
+        <v>0.0001874428087303891</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>1.138301150309915</v>
+        <v>8.711179406588503</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001874428087303891</v>
+        <v>1.574685507359526</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.711179406588503</v>
+        <v>0.01422403130829608</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.574685507359526</v>
+        <v>2.766216613716273</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01422403130829608</v>
+        <v>0.9209875754617959</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.766216613716273</v>
+        <v>1.969126289774668</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9209875754617959</v>
+        <v>4</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.969126289774668</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.129618382568973</v>
       </c>
     </row>
@@ -7300,72 +7162,66 @@
         <v>2.665104580869477e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.2540419579237405</v>
+        <v>8.196335148611417e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.335732382584158</v>
+        <v>2.18798029168848e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>8.196335148611417e-07</v>
+        <v>0.03549592267561945</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.18798029168848e-06</v>
+        <v>0.1490796705894739</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.03549592267561945</v>
+        <v>0.0234845501562907</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1490796705894739</v>
+        <v>1.378095982030556</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.0234845501562907</v>
+        <v>1.282353047910327</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.301848227285537</v>
+        <v>3.51591824597463</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.282353047910327</v>
+        <v>5.367176221092401e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.51591824597463</v>
+        <v>4626502.769129959</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>5.367176221092401e-14</v>
+        <v>1.766893140353731e-05</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>4626502.769129959</v>
+        <v>1.148818730224255</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.766893140353731e-05</v>
+        <v>0.0001806927686820974</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>1.148818730224255</v>
+        <v>10.13709646073864</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001806927686820974</v>
+        <v>1.242467344201398</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>10.13709646073864</v>
+        <v>0.01856811984956772</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.242467344201398</v>
+        <v>2.672396116543936</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01856811984956772</v>
+        <v>0.9204186140422931</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.672396116543936</v>
+        <v>1.972566254347487</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9204186140422931</v>
+        <v>4</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.972566254347487</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1333395120090371</v>
       </c>
     </row>
@@ -7380,72 +7236,66 @@
         <v>2.680499952054167e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.1866835205961958</v>
+        <v>8.196335148611417e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.378346562748473</v>
+        <v>2.197356564965847e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>8.196335148611417e-07</v>
+        <v>0.03478679355434963</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.197356564965847e-06</v>
+        <v>0.1484692787333625</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.03478679355434963</v>
+        <v>0.02325329812613118</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1484692787333625</v>
+        <v>1.37466110629006</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02325329812613118</v>
+        <v>1.272222059824091</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.297401510958159</v>
+        <v>3.513220632399036</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.272222059824091</v>
+        <v>5.375421718662635e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.513220632399036</v>
+        <v>4604262.300349411</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>5.375421718662635e-14</v>
+        <v>1.768749313734292e-05</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>4604262.300349411</v>
+        <v>1.139548085124868</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.768749313734292e-05</v>
+        <v>0.0001729305446564019</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>1.139548085124868</v>
+        <v>11.28422475113276</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001729305446564019</v>
+        <v>1.078160943534708</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>11.28422475113276</v>
+        <v>0.02201989097664925</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.078160943534708</v>
+        <v>2.478943452872263</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.02201989097664925</v>
+        <v>0.9213349172363985</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.478943452872263</v>
+        <v>1.94711292163944</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9213349172363985</v>
+        <v>4</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.94711292163944</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1462643265746902</v>
       </c>
     </row>
@@ -7822,7 +7672,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.51515209829751</v>
+        <v>1.463517282458733</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.386343455332342</v>
@@ -7911,7 +7761,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.509191189449925</v>
+        <v>1.459621675537618</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.438933238559406</v>
@@ -8000,7 +7850,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.513651088648869</v>
+        <v>1.467345032431385</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.182637527802359</v>
@@ -8089,7 +7939,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.541178689525895</v>
+        <v>1.496216727197244</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.226675256384476</v>
@@ -8178,7 +8028,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.544385907824538</v>
+        <v>1.503179807382997</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.471187532752737</v>
@@ -8267,7 +8117,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.556202353037135</v>
+        <v>1.511304489097274</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.293419112901592</v>
@@ -8356,7 +8206,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.551356688187593</v>
+        <v>1.500410082024108</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.42845493140695</v>
@@ -8445,7 +8295,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.538800792911223</v>
+        <v>1.493522584526239</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.284540135550524</v>
@@ -8534,7 +8384,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.54938792405246</v>
+        <v>1.495131483083086</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.302276040774864</v>
@@ -8623,7 +8473,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.556180660722528</v>
+        <v>1.505270394244047</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.180617015089448</v>
@@ -8712,7 +8562,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.564772331053626</v>
+        <v>1.525235931037609</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.343382821989906</v>
@@ -8801,7 +8651,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.599739074085279</v>
+        <v>1.547943643490573</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.441739047392135</v>
@@ -8890,7 +8740,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.597805422660741</v>
+        <v>1.538043742695258</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.418855204371156</v>
@@ -8979,7 +8829,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.627237524085989</v>
+        <v>1.558731195558594</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.490082213297862</v>
@@ -9068,7 +8918,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.631007730430749</v>
+        <v>1.560483461077742</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.846474664791523</v>
@@ -9157,7 +9007,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.620785475049362</v>
+        <v>1.548021242357618</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.985890873333338</v>
@@ -9246,7 +9096,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.609457730798213</v>
+        <v>1.534596156128397</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.278054268026775</v>
@@ -9335,7 +9185,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.602941668572812</v>
+        <v>1.517772450169705</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.228974095115243</v>
@@ -9424,7 +9274,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.604283936621725</v>
+        <v>1.514274846594475</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.371166755684328</v>
@@ -9513,7 +9363,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.598580828600088</v>
+        <v>1.504729037577573</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.292734814226266</v>
@@ -9602,7 +9452,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.590284831424639</v>
+        <v>1.50143746039446</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.240573074277545</v>
@@ -9691,7 +9541,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.584216407816393</v>
+        <v>1.496454351905456</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.267102010667894</v>
@@ -9780,7 +9630,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.526318576329067</v>
+        <v>1.457888572167581</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.764246360880505</v>
@@ -9869,7 +9719,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.4495040849158</v>
+        <v>1.389720940723917</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.854545542115195</v>
@@ -9958,7 +9808,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.396166149024539</v>
+        <v>1.342028343197527</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.89558403374053</v>
@@ -10047,7 +9897,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.397587117144926</v>
+        <v>1.345698781640021</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.896853200384203</v>
@@ -10136,7 +9986,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.390665469354543</v>
+        <v>1.343339131949112</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.918017220776778</v>
@@ -10225,7 +10075,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.389139522174015</v>
+        <v>1.343031647684397</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.911407133611742</v>
@@ -10314,7 +10164,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.384438051385907</v>
+        <v>1.3359079782047</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.929079919646589</v>
@@ -10403,7 +10253,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.372259240319796</v>
+        <v>1.320906026197083</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.967062875953797</v>
@@ -10492,7 +10342,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.360323754029228</v>
+        <v>1.315008883110831</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.92559310222393</v>
@@ -10581,7 +10431,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.36120840664928</v>
+        <v>1.317064043370129</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.926335064603506</v>
@@ -10670,7 +10520,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.361953016845291</v>
+        <v>1.324312792054305</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.932204539289918</v>
@@ -10759,7 +10609,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.359567777710473</v>
+        <v>1.320971183948554</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.935116199908262</v>
@@ -10848,7 +10698,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.353386760457065</v>
+        <v>1.316820680180067</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.94766412102313</v>
@@ -10937,7 +10787,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.358089176498759</v>
+        <v>1.320599205342268</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.963331341066028</v>
@@ -11026,7 +10876,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.354708897300941</v>
+        <v>1.316837617236076</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.934204545763357</v>
@@ -11115,7 +10965,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.406272340913343</v>
+        <v>1.357420845914386</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.875932935320065</v>
@@ -11204,7 +11054,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.407453705966852</v>
+        <v>1.37262889874349</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.028589114993943</v>
@@ -11293,7 +11143,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.474891490909336</v>
+        <v>1.433739538011341</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.442031187665901</v>
@@ -11382,7 +11232,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.472425986126857</v>
+        <v>1.430116820866246</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.494731390045464</v>
@@ -11471,7 +11321,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.484095114908581</v>
+        <v>1.43740251410852</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.538153515198163</v>
@@ -11560,7 +11410,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.477750583290986</v>
+        <v>1.437325985238797</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.473948247533242</v>
@@ -11649,7 +11499,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.477936283154735</v>
+        <v>1.437177989028781</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.111698986162027</v>
@@ -11738,7 +11588,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.4930524065748</v>
+        <v>1.458528045613912</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.181397247264447</v>
@@ -11827,7 +11677,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.504915508464614</v>
+        <v>1.467750935350814</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.41311614484</v>
@@ -11916,7 +11766,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.507401234364929</v>
+        <v>1.469910490416183</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.440710589510412</v>
@@ -12005,7 +11855,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.492167645214397</v>
+        <v>1.457389854505369</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.461360836795116</v>
@@ -12094,7 +11944,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.487721251981895</v>
+        <v>1.45889268455314</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.453211011890109</v>
@@ -12183,7 +12033,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.48474107821014</v>
+        <v>1.460520167921536</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.679866842406664</v>
@@ -12272,7 +12122,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.455378707727562</v>
+        <v>1.437022861100263</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.371214392413412</v>
@@ -12361,7 +12211,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.464594141649466</v>
+        <v>1.453879257551389</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.356097200874255</v>
@@ -12450,7 +12300,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.45563955379598</v>
+        <v>1.454231028430064</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.400066081780913</v>
@@ -12539,7 +12389,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.464167563251642</v>
+        <v>1.455951058543935</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.398790734645365</v>
@@ -12628,7 +12478,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.45867223305208</v>
+        <v>1.444001857997213</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.323390810128132</v>
@@ -12717,7 +12567,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.420141560597678</v>
+        <v>1.396099961872382</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.812643316200123</v>
@@ -12806,7 +12656,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.400804479577436</v>
+        <v>1.379646953566594</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.834686258338424</v>
@@ -12895,7 +12745,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.393079047626883</v>
+        <v>1.37222529658261</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.863065160550621</v>
@@ -12984,7 +12834,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.40649764057354</v>
+        <v>1.386622770079003</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.866062273097</v>
@@ -13073,7 +12923,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.420932080473905</v>
+        <v>1.40067261802903</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.855480305733177</v>
@@ -13162,7 +13012,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.412611014132779</v>
+        <v>1.395181321281486</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.858465487337444</v>
@@ -13251,7 +13101,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.423085354420939</v>
+        <v>1.401870627290715</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.836446133373149</v>
@@ -13340,7 +13190,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.428118798012303</v>
+        <v>1.406720381830537</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.877361963421522</v>
@@ -13429,7 +13279,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.437987854214894</v>
+        <v>1.41720438597108</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.859075994062261</v>
@@ -13518,7 +13368,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.44368657793114</v>
+        <v>1.419792209835965</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.803711465705594</v>
@@ -13607,7 +13457,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.464132631876077</v>
+        <v>1.435772033569359</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.826012449472162</v>
@@ -13696,7 +13546,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.45752648438196</v>
+        <v>1.429297583384411</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.856773584399556</v>
@@ -13785,7 +13635,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.470446084253457</v>
+        <v>1.443743213621871</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.845547528221751</v>
@@ -14071,7 +13921,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.244661160801763</v>
+        <v>1.205577280927876</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.903358407609493</v>
@@ -14160,7 +14010,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.246980153011207</v>
+        <v>1.20604301794977</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.884075839332557</v>
@@ -14249,7 +14099,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.251955699589749</v>
+        <v>1.21488788321763</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.690966005107698</v>
@@ -14338,7 +14188,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.280016197286953</v>
+        <v>1.246132800470431</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.795146007078445</v>
@@ -14427,7 +14277,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.282624131462423</v>
+        <v>1.248907749214473</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.841952068062477</v>
@@ -14516,7 +14366,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.298780757588401</v>
+        <v>1.261007492201024</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.762671602598272</v>
@@ -14605,7 +14455,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.302034267890448</v>
+        <v>1.256644677744058</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.855639386467529</v>
@@ -14694,7 +14544,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.270205199583626</v>
+        <v>1.230367262014087</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.843173401401376</v>
@@ -14783,7 +14633,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.284138880680588</v>
+        <v>1.235218635334215</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.857799028668308</v>
@@ -14872,7 +14722,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.285920942078947</v>
+        <v>1.234237801687984</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.844298323300078</v>
@@ -14961,7 +14811,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.274700855185916</v>
+        <v>1.235800086283461</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.837164797363047</v>
@@ -15050,7 +14900,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.306802586400653</v>
+        <v>1.264658337208871</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.828258987383809</v>
@@ -15139,7 +14989,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.309433743279301</v>
+        <v>1.262539064570173</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.792009329625065</v>
@@ -15228,7 +15078,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.310781012273032</v>
+        <v>1.260907922706009</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.81387686939276</v>
@@ -15317,7 +15167,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.324288905164112</v>
+        <v>1.273257035995395</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.954727189600223</v>
@@ -15406,7 +15256,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.323092483510995</v>
+        <v>1.276412084865221</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.981908265960098</v>
@@ -15495,7 +15345,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.314488124188905</v>
+        <v>1.266420234687925</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.783162389918868</v>
@@ -15584,7 +15434,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.315680625254106</v>
+        <v>1.261981669298314</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.770405086119471</v>
@@ -15673,7 +15523,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.315782862764276</v>
+        <v>1.25861730782399</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.80257394787415</v>
@@ -15762,7 +15612,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.314975774066727</v>
+        <v>1.260132201050317</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.787190917868485</v>
@@ -15851,7 +15701,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.325280287910106</v>
+        <v>1.270148500095552</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.76375295088218</v>
@@ -15940,7 +15790,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.320757931297173</v>
+        <v>1.269949867514926</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.72723651055472</v>
@@ -16029,7 +15879,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.30595521544479</v>
+        <v>1.261560592037665</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.63692050295984</v>
@@ -16118,7 +15968,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.274426734173469</v>
+        <v>1.2395804175028</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.680113257747875</v>
@@ -16207,7 +16057,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.273221527075548</v>
+        <v>1.234034084528015</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.66876357282766</v>
@@ -16296,7 +16146,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.27342719622696</v>
+        <v>1.236014284396547</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.707331735771116</v>
@@ -16385,7 +16235,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.264006525344396</v>
+        <v>1.224714944923963</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.723167890854417</v>
@@ -16474,7 +16324,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.257770198735168</v>
+        <v>1.224807784650989</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.72845021518228</v>
@@ -16563,7 +16413,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.259979870420559</v>
+        <v>1.2271174095373</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.740856283827568</v>
@@ -16652,7 +16502,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.252476379891286</v>
+        <v>1.218102678493152</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.771419238097288</v>
@@ -16741,7 +16591,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.244691966312789</v>
+        <v>1.211311190984518</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.734773342673047</v>
@@ -16830,7 +16680,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.248374322363354</v>
+        <v>1.215367048555361</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.71117515023834</v>
@@ -16919,7 +16769,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.246934321844371</v>
+        <v>1.217877974983365</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.742658008962777</v>
@@ -17008,7 +16858,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.244263579280989</v>
+        <v>1.21582451454049</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.744646661490482</v>
@@ -17097,7 +16947,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.226628880658043</v>
+        <v>1.198876040441974</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.784720374964052</v>
@@ -17186,7 +17036,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.233280253312575</v>
+        <v>1.204936598607578</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.822127987135453</v>
@@ -17275,7 +17125,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.227855787999798</v>
+        <v>1.199186506527929</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.750232555184766</v>
@@ -17364,7 +17214,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.27549798059575</v>
+        <v>1.239312350062195</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.860082271119184</v>
@@ -17453,7 +17303,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.239442234627055</v>
+        <v>1.207683044114702</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.870954250495426</v>
@@ -17542,7 +17392,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.246425853221955</v>
+        <v>1.215257058980701</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.87500771073354</v>
@@ -17631,7 +17481,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.237373916705106</v>
+        <v>1.208750375086362</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.89043094233107</v>
@@ -17720,7 +17570,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.252568904400314</v>
+        <v>1.222879513335212</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.802679118418929</v>
@@ -17809,7 +17659,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.248451973052759</v>
+        <v>1.219460164969497</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.870455611320838</v>
@@ -17898,7 +17748,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.229219133463898</v>
+        <v>1.199274427800053</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.811027234615872</v>
@@ -17987,7 +17837,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.23896758050623</v>
+        <v>1.20934061547182</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.806148143003098</v>
@@ -18076,7 +17926,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.246316682527912</v>
+        <v>1.215522928588236</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.779535400605907</v>
@@ -18165,7 +18015,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.266290649616678</v>
+        <v>1.232994215736037</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.82293509878652</v>
@@ -18254,7 +18104,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.241846416097974</v>
+        <v>1.213135712974941</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.829283190797404</v>
@@ -18343,7 +18193,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.230101621366828</v>
+        <v>1.202259595827997</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.835597282969798</v>
@@ -18432,7 +18282,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.230046751746751</v>
+        <v>1.204884851228097</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.912719103579094</v>
@@ -18521,7 +18371,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.227219187656608</v>
+        <v>1.204745121548397</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.836867893886353</v>
@@ -18610,7 +18460,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.238782148946939</v>
+        <v>1.220465759786162</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.877171399692127</v>
@@ -18699,7 +18549,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.213517030312824</v>
+        <v>1.200575546597555</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.903384504780752</v>
@@ -18788,7 +18638,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.229374871957916</v>
+        <v>1.212394395048517</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.824946380712207</v>
@@ -18877,7 +18727,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.228870807075137</v>
+        <v>1.209065626851967</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.832956249908165</v>
@@ -18966,7 +18816,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.224614495675451</v>
+        <v>1.198922023184914</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.844115160483978</v>
@@ -19055,7 +18905,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.216375609779893</v>
+        <v>1.190942175522753</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.852425700733847</v>
@@ -19144,7 +18994,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.212579046414392</v>
+        <v>1.18467444673903</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.854131157689607</v>
@@ -19233,7 +19083,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.229083636939309</v>
+        <v>1.201873047735848</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.870714571878803</v>
@@ -19322,7 +19172,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.227465429063631</v>
+        <v>1.200755730191271</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.887750410489917</v>
@@ -19411,7 +19261,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.214858164970252</v>
+        <v>1.188070419499409</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.898923025316995</v>
@@ -19500,7 +19350,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.222121702103525</v>
+        <v>1.196946729627538</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.84632420268529</v>
@@ -19589,7 +19439,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.226184682101736</v>
+        <v>1.200400114445926</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.944994438670636</v>
@@ -19678,7 +19528,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.24143432086442</v>
+        <v>1.21746710924685</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.887818855249876</v>
@@ -19767,7 +19617,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.238307879100992</v>
+        <v>1.213095240019649</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.818528523163702</v>
@@ -19856,7 +19706,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.245830648043748</v>
+        <v>1.218125938065571</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.841541778576225</v>
@@ -19945,7 +19795,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.227879742276257</v>
+        <v>1.202680120479911</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.894345082626431</v>
@@ -20034,7 +19884,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.24268859104468</v>
+        <v>1.218291651731265</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.893171029320142</v>
@@ -20320,7 +20170,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.701375093514566</v>
+        <v>1.642183027667244</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.20882824076555</v>
@@ -20409,7 +20259,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.709476774240754</v>
+        <v>1.644307923648871</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.195522052661718</v>
@@ -20498,7 +20348,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.70707372080478</v>
+        <v>1.640375344303264</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.01547127987279</v>
@@ -20587,7 +20437,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.706741778708069</v>
+        <v>1.640456079112751</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.971287576750074</v>
@@ -20676,7 +20526,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.710216699236959</v>
+        <v>1.650511131668973</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.845925532366601</v>
@@ -20765,7 +20615,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.712653321060049</v>
+        <v>1.655164115006</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.138568251857039</v>
@@ -20854,7 +20704,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.69799867134364</v>
+        <v>1.633118187871874</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.084370730538231</v>
@@ -20943,7 +20793,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.680678700186064</v>
+        <v>1.624666257740927</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.048694926154687</v>
@@ -21032,7 +20882,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.685406826033198</v>
+        <v>1.622680260947773</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.131965233019673</v>
@@ -21121,7 +20971,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.682297011079768</v>
+        <v>1.619987264429188</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.635763654456734</v>
@@ -21210,7 +21060,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.692587117548343</v>
+        <v>1.638848078591967</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.801323535836541</v>
@@ -21299,7 +21149,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.712132683968703</v>
+        <v>1.654722254245005</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.087753410159418</v>
@@ -21388,7 +21238,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.717165773404172</v>
+        <v>1.664013024253715</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.009829379354549</v>
@@ -21477,7 +21327,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.744918687293974</v>
+        <v>1.687249036823797</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.075754592023948</v>
@@ -21566,7 +21416,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.746558897313531</v>
+        <v>1.685999111472756</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.091989303341862</v>
@@ -21655,7 +21505,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.747511459392194</v>
+        <v>1.686292562479216</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.15297694333022</v>
@@ -21744,7 +21594,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.73253124293665</v>
+        <v>1.675997771183399</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.437015561547976</v>
@@ -21833,7 +21683,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.726088215581502</v>
+        <v>1.666642038539736</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.386121133839268</v>
@@ -21922,7 +21772,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.726509478046747</v>
+        <v>1.66827149876918</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.115434756776856</v>
@@ -22011,7 +21861,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.718612044911115</v>
+        <v>1.664073151459919</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.237547996174398</v>
@@ -22100,7 +21950,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.716495842988502</v>
+        <v>1.658927349367482</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.58423401300352</v>
@@ -22189,7 +22039,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.724338591597325</v>
+        <v>1.669653550410396</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.420904119443137</v>
@@ -22278,7 +22128,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.757223942408473</v>
+        <v>1.712660009206163</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.270633033424498</v>
@@ -22367,7 +22217,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.642348271057287</v>
+        <v>1.600591648007529</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.062657985438663</v>
@@ -22456,7 +22306,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.533840424516001</v>
+        <v>1.507375030730024</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.141525052580983</v>
@@ -22545,7 +22395,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.534142450108957</v>
+        <v>1.506718913456371</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.101735683112245</v>
@@ -22634,7 +22484,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.528704346773074</v>
+        <v>1.50052507712264</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.113891793388108</v>
@@ -22723,7 +22573,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.522939911833875</v>
+        <v>1.492822544727325</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.097757011908362</v>
@@ -22812,7 +22662,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.511026540672989</v>
+        <v>1.480359959053546</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.107516624111399</v>
@@ -22901,7 +22751,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.481567103422442</v>
+        <v>1.450457928449309</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.155532477616095</v>
@@ -22990,7 +22840,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.467194674268054</v>
+        <v>1.441481191867249</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.152989202796427</v>
@@ -23079,7 +22929,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.473852411899169</v>
+        <v>1.44848295689192</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.172822669780057</v>
@@ -23168,7 +23018,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.47753056947839</v>
+        <v>1.455972367027053</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.157220208043836</v>
@@ -23257,7 +23107,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.476499764330116</v>
+        <v>1.455783380634794</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.17007436146288</v>
@@ -23346,7 +23196,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.476775953359087</v>
+        <v>1.452649292593063</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.166905792730713</v>
@@ -23435,7 +23285,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.478905234409128</v>
+        <v>1.456488393189731</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.116605628307464</v>
@@ -23524,7 +23374,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.478038775294976</v>
+        <v>1.45410228958988</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.164617129109721</v>
@@ -23613,7 +23463,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.46551834093646</v>
+        <v>1.434613018093133</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.034197111061594</v>
@@ -23702,7 +23552,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.492282398857036</v>
+        <v>1.474249792629358</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.050960933991071</v>
@@ -23791,7 +23641,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.602907495491803</v>
+        <v>1.574669988074736</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.403823883501676</v>
@@ -23880,7 +23730,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.595055411711916</v>
+        <v>1.572185422813813</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.545974812562061</v>
@@ -23969,7 +23819,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.608047244673479</v>
+        <v>1.587055852073424</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.438336081044391</v>
@@ -24058,7 +23908,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.591397842264174</v>
+        <v>1.577164003887634</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.377592958325525</v>
@@ -24147,7 +23997,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.613620681759715</v>
+        <v>1.585148531147099</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.078774560031414</v>
@@ -24236,7 +24086,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.629674910341496</v>
+        <v>1.604221224154486</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.489027145619802</v>
@@ -24325,7 +24175,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.63454941096032</v>
+        <v>1.610050836097194</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.79546886842918</v>
@@ -24414,7 +24264,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.61595796097962</v>
+        <v>1.597161641133392</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.76942227997722</v>
@@ -24503,7 +24353,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.607153871877322</v>
+        <v>1.588722436867865</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.951007410875289</v>
@@ -24592,7 +24442,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.59581410219671</v>
+        <v>1.579248523777682</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.84225415756857</v>
@@ -24681,7 +24531,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.589002259853058</v>
+        <v>1.576950574270239</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.743894760950762</v>
@@ -24770,7 +24620,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.588009477424121</v>
+        <v>1.579785475086266</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.985857462212507</v>
@@ -24859,7 +24709,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.593940943089184</v>
+        <v>1.584530014433318</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.848345851711785</v>
@@ -24948,7 +24798,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.591309706493696</v>
+        <v>1.583066102974338</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.89557563175514</v>
@@ -25037,7 +24887,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.58973556586153</v>
+        <v>1.577714218577435</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.676015320352554</v>
@@ -25126,7 +24976,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.582654152580278</v>
+        <v>1.566411441537907</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.875874385448917</v>
@@ -25215,7 +25065,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.489118422187503</v>
+        <v>1.467030216225899</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.705998167145131</v>
@@ -25304,7 +25154,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.466466259890668</v>
+        <v>1.452797220136623</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.74126956631842</v>
@@ -25393,7 +25243,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.472538277446977</v>
+        <v>1.462146896828737</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.737448415438213</v>
@@ -25482,7 +25332,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.482987343906591</v>
+        <v>1.477771408031593</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.726444850521575</v>
@@ -25571,7 +25421,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.503221897832737</v>
+        <v>1.498174266923211</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.748051425787013</v>
@@ -25660,7 +25510,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.511052224476668</v>
+        <v>1.507178614257695</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.74788328182674</v>
@@ -25749,7 +25599,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.52337414183279</v>
+        <v>1.512333019211059</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.757423650745185</v>
@@ -25838,7 +25688,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.525135121208632</v>
+        <v>1.515471644739387</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.758999348087457</v>
@@ -25927,7 +25777,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.534514831805104</v>
+        <v>1.525034957820058</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.769543538443686</v>
@@ -26016,7 +25866,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.537945594349287</v>
+        <v>1.530475309834781</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.765103863987856</v>
@@ -26105,7 +25955,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.53647639922895</v>
+        <v>1.528816864123107</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.762904980216024</v>
@@ -26194,7 +26044,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.532640517382188</v>
+        <v>1.52642910514718</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.75834620063222</v>
@@ -26283,7 +26133,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.534518444011705</v>
+        <v>1.527820762411366</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.764936075023154</v>
@@ -26569,7 +26419,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.43692906196311</v>
+        <v>1.410338556987311</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.219784115056318</v>
@@ -26658,7 +26508,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.443481949360606</v>
+        <v>1.41891343881863</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.211140797189593</v>
@@ -26747,7 +26597,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.454772577442554</v>
+        <v>1.430891738886581</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.980339537888404</v>
@@ -26836,7 +26686,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.490802924123311</v>
+        <v>1.46621966281577</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.110019482435571</v>
@@ -26925,7 +26775,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.491201827671346</v>
+        <v>1.467519395442066</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.171152702708543</v>
@@ -27014,7 +26864,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.506661061608894</v>
+        <v>1.479306625618699</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.089088789763987</v>
@@ -27103,7 +26953,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.501687754739021</v>
+        <v>1.471130933274772</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.233542023093213</v>
@@ -27192,7 +27042,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.472385648108198</v>
+        <v>1.44564874050457</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.157724050620086</v>
@@ -27281,7 +27131,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.478739009532333</v>
+        <v>1.444429524877288</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.184911967681041</v>
@@ -27370,7 +27220,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.485110773185234</v>
+        <v>1.450080632973526</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.136959663641552</v>
@@ -27459,7 +27309,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.490348391141888</v>
+        <v>1.466560321337217</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.203506885265797</v>
@@ -27548,7 +27398,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.53430178459173</v>
+        <v>1.504433373067459</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.230132642500953</v>
@@ -27637,7 +27487,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.534583641685292</v>
+        <v>1.496959588406716</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.166879839717486</v>
@@ -27726,7 +27576,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.545047340774158</v>
+        <v>1.50257015084509</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.203445649440701</v>
@@ -27815,7 +27665,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.562992912445138</v>
+        <v>1.523610674850438</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.370653578921583</v>
@@ -27904,7 +27754,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.557579155607787</v>
+        <v>1.514564940047454</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.354046159835213</v>
@@ -27993,7 +27843,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.542114234399528</v>
+        <v>1.497043800538324</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.090451584095067</v>
@@ -28082,7 +27932,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.54170916704267</v>
+        <v>1.491155726942864</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.085157852319511</v>
@@ -28171,7 +28021,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.537568257036601</v>
+        <v>1.481304438743431</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.184321354194156</v>
@@ -28260,7 +28110,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.533108579430794</v>
+        <v>1.476367866158286</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.130573482108225</v>
@@ -28349,7 +28199,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.539740249810151</v>
+        <v>1.476676397796134</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.09314988046163</v>
@@ -28438,7 +28288,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.540175470294791</v>
+        <v>1.483402801598202</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.038294388809473</v>
@@ -28527,7 +28377,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.548611941542469</v>
+        <v>1.506465710290497</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.948870245794843</v>
@@ -28616,7 +28466,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.507999295607406</v>
+        <v>1.488157886567854</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.970235565643618</v>
@@ -28705,7 +28555,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.504454343357681</v>
+        <v>1.484103260981779</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.960767224618092</v>
@@ -28794,7 +28644,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.513929907778145</v>
+        <v>1.496119661744154</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.018825203632651</v>
@@ -28883,7 +28733,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.500782996938291</v>
+        <v>1.481667661425392</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.026368523609864</v>
@@ -28972,7 +28822,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.493224484362131</v>
+        <v>1.483551749338208</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.023137484194564</v>
@@ -29061,7 +28911,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.490066275273243</v>
+        <v>1.480018344997426</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.063204779315908</v>
@@ -29150,7 +29000,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.468897028207815</v>
+        <v>1.456647647643809</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.048566029831118</v>
@@ -29239,7 +29089,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.462886190861006</v>
+        <v>1.456388045545727</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.020606342701653</v>
@@ -29328,7 +29178,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.471512730372141</v>
+        <v>1.466301989057488</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.006556370995177</v>
@@ -29417,7 +29267,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.478130083014334</v>
+        <v>1.478697689070467</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.055974595031757</v>
@@ -29506,7 +29356,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.482837450902921</v>
+        <v>1.488386548922488</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.078507503133822</v>
@@ -29595,7 +29445,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.456831395766886</v>
+        <v>1.463743887075108</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.117900323047474</v>
@@ -29684,7 +29534,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.468509207688832</v>
+        <v>1.478050705734491</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.147042124542793</v>
@@ -29773,7 +29623,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.454926795102208</v>
+        <v>1.461087418834308</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.036295395230372</v>
@@ -29862,7 +29712,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.479222545961634</v>
+        <v>1.463769129883604</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.151808055646682</v>
@@ -29951,7 +29801,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.462995512809342</v>
+        <v>1.453768654211239</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.313933597377568</v>
@@ -30040,7 +29890,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.472511463578396</v>
+        <v>1.462846314662722</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.195489677014867</v>
@@ -30129,7 +29979,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.459317309997204</v>
+        <v>1.451370452767253</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.181661940312014</v>
@@ -30218,7 +30068,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.478065051534794</v>
+        <v>1.471562341003691</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.100967771343985</v>
@@ -30307,7 +30157,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.476555657726672</v>
+        <v>1.468078386273937</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.171614491233009</v>
@@ -30396,7 +30246,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.443390685145862</v>
+        <v>1.438243688785583</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.210922317470323</v>
@@ -30485,7 +30335,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.46955280926103</v>
+        <v>1.467449537543741</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.220087453861564</v>
@@ -30574,7 +30424,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.474278245290615</v>
+        <v>1.470004147923787</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.05450864145082</v>
@@ -30663,7 +30513,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.485089046544513</v>
+        <v>1.481103135388242</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.123818154588426</v>
@@ -30752,7 +30602,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.453845638009211</v>
+        <v>1.453160952499157</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.054725497035886</v>
@@ -30841,7 +30691,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.432276597194001</v>
+        <v>1.43212405123226</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.117850133428244</v>
@@ -30930,7 +30780,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.43218501507276</v>
+        <v>1.436144937510532</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.134551867463842</v>
@@ -31019,7 +30869,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.422970192772774</v>
+        <v>1.428643745912735</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.055855737828642</v>
@@ -31108,7 +30958,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.440700035660204</v>
+        <v>1.452110432983544</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.069004722149535</v>
@@ -31197,7 +31047,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.415917373534654</v>
+        <v>1.432923298892121</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.07618194278994</v>
@@ -31286,7 +31136,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.437950576036172</v>
+        <v>1.446498723166675</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.020430979581417</v>
@@ -31375,7 +31225,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.434853848191473</v>
+        <v>1.438916697683065</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.024793480024487</v>
@@ -31464,7 +31314,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.388863941314042</v>
+        <v>1.38990865067541</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.905403239185682</v>
@@ -31553,7 +31403,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.373832241617031</v>
+        <v>1.376915085048401</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.909833605044571</v>
@@ -31642,7 +31492,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.368400613432038</v>
+        <v>1.372648864110849</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.898511074514762</v>
@@ -31731,7 +31581,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.38285175799144</v>
+        <v>1.386361401598256</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.889873702865394</v>
@@ -31820,7 +31670,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.377533368826662</v>
+        <v>1.378277055895326</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.90695536301035</v>
@@ -31909,7 +31759,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.358002824459322</v>
+        <v>1.358868873745074</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.933801143588058</v>
@@ -31998,7 +31848,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.371442176390131</v>
+        <v>1.367246364825844</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.903185792890268</v>
@@ -32087,7 +31937,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.376285831399187</v>
+        <v>1.370858533307331</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.968418389718482</v>
@@ -32176,7 +32026,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.392378219163049</v>
+        <v>1.385831308182863</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.949113218035115</v>
@@ -32265,7 +32115,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.390186384592844</v>
+        <v>1.382640992452191</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.888673139563704</v>
@@ -32354,7 +32204,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.397639473250472</v>
+        <v>1.385500395396754</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.919279073281349</v>
@@ -32443,7 +32293,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.381352457689431</v>
+        <v>1.369843227337808</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.942954476110493</v>
@@ -32532,7 +32382,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.395991923294516</v>
+        <v>1.383804224426024</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.944695963190055</v>
@@ -32818,7 +32668,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.403896241442829</v>
+        <v>1.370446711924501</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.159461009741637</v>
@@ -32907,7 +32757,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.404047852093382</v>
+        <v>1.369852639429102</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.119940171682273</v>
@@ -32996,7 +32846,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.418157396615751</v>
+        <v>1.384428155408593</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.923698212948764</v>
@@ -33085,7 +32935,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.451568312631443</v>
+        <v>1.413219925124675</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.01261445426312</v>
@@ -33174,7 +33024,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.457543252480508</v>
+        <v>1.424157880679942</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.201303697613841</v>
@@ -33263,7 +33113,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.468575564616612</v>
+        <v>1.432542200604781</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.050528451091271</v>
@@ -33352,7 +33202,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.458724790878098</v>
+        <v>1.416163419679126</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.1648466143452</v>
@@ -33441,7 +33291,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.438126053361188</v>
+        <v>1.401766356341442</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.118139515880443</v>
@@ -33530,7 +33380,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.4449546929607</v>
+        <v>1.397437156814903</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.119817591538183</v>
@@ -33619,7 +33469,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.449089158248425</v>
+        <v>1.39925146731719</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.057725250389551</v>
@@ -33708,7 +33558,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.44801860400261</v>
+        <v>1.409765303378189</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.116775418512769</v>
@@ -33797,7 +33647,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.48803293798575</v>
+        <v>1.441545469145774</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.165248225154538</v>
@@ -33886,7 +33736,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.488258182515678</v>
+        <v>1.438077736870462</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.096086227646214</v>
@@ -33975,7 +33825,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.501216290814024</v>
+        <v>1.445973453998235</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.165034007786817</v>
@@ -34064,7 +33914,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.530239419042985</v>
+        <v>1.466798347614969</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.377145384932576</v>
@@ -34153,7 +34003,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.527396967671439</v>
+        <v>1.462491295394227</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.457154317850308</v>
@@ -34242,7 +34092,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.512511609606283</v>
+        <v>1.449926011886895</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.061557302860045</v>
@@ -34331,7 +34181,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.512274577832675</v>
+        <v>1.437776841720561</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.020538673972303</v>
@@ -34420,7 +34270,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.509760594549308</v>
+        <v>1.432559970185083</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.103101188944207</v>
@@ -34509,7 +34359,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.500426155924664</v>
+        <v>1.418431781876071</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.054232124967557</v>
@@ -34598,7 +34448,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.502300976416996</v>
+        <v>1.420596350549001</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.017215921187509</v>
@@ -34687,7 +34537,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.5041557135829</v>
+        <v>1.427808040873309</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.005253595842277</v>
@@ -34776,7 +34626,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.462839230274144</v>
+        <v>1.404028552567232</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.748100827997616</v>
@@ -34865,7 +34715,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.40221613510191</v>
+        <v>1.361567587257337</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.806982400496757</v>
@@ -34954,7 +34804,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.393368536722626</v>
+        <v>1.353223399462535</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.796751019836482</v>
@@ -35043,7 +34893,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.40004428516177</v>
+        <v>1.35844336584533</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.83774935966138</v>
@@ -35132,7 +34982,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.390029443693642</v>
+        <v>1.350573678463917</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.831165112108148</v>
@@ -35221,7 +35071,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.386700068137491</v>
+        <v>1.348294881030292</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.845251268458556</v>
@@ -35310,7 +35160,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.383833801434664</v>
+        <v>1.342873482218394</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.845165422005744</v>
@@ -35399,7 +35249,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.367519407807631</v>
+        <v>1.328745525332732</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.868607456580065</v>
@@ -35488,7 +35338,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.359586564787091</v>
+        <v>1.322650771744508</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.842682682623852</v>
@@ -35577,7 +35427,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.364873110857927</v>
+        <v>1.328566452495384</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.824141689447676</v>
@@ -35666,7 +35516,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.360477499436788</v>
+        <v>1.330595713677509</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.847692678833704</v>
@@ -35755,7 +35605,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.359105720726084</v>
+        <v>1.330616074338742</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.862640309603589</v>
@@ -35844,7 +35694,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.344133707703896</v>
+        <v>1.317360817170353</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.875049725754699</v>
@@ -35933,7 +35783,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.35756012987724</v>
+        <v>1.330963476163897</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.911669046814843</v>
@@ -36022,7 +35872,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.345477832399482</v>
+        <v>1.317373085526456</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.83855130424703</v>
@@ -36111,7 +35961,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.413857714687239</v>
+        <v>1.365718730153122</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.916063924047011</v>
@@ -36200,7 +36050,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.400260663362542</v>
+        <v>1.357024569645563</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.118069761263249</v>
@@ -36289,7 +36139,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.41300860490143</v>
+        <v>1.366677775242469</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.149593376663538</v>
@@ -36378,7 +36228,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.403022381930752</v>
+        <v>1.359183426782473</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.193150022935937</v>
@@ -36467,7 +36317,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.422566287022048</v>
+        <v>1.374835435267887</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.127672652581533</v>
@@ -36556,7 +36406,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.416682411067215</v>
+        <v>1.377046041245593</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.12893714849227</v>
@@ -36645,7 +36495,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.394472428106982</v>
+        <v>1.360674706695315</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.061388216171431</v>
@@ -36734,7 +36584,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.410900781836511</v>
+        <v>1.377185093661902</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.090737935573718</v>
@@ -36823,7 +36673,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.421559445341395</v>
+        <v>1.387691747313612</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.109088965227472</v>
@@ -36912,7 +36762,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.437206561390528</v>
+        <v>1.401266717297146</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.144297289482928</v>
@@ -37001,7 +36851,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.417114487366924</v>
+        <v>1.385917029183583</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.13633905864894</v>
@@ -37090,7 +36940,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.401308144216304</v>
+        <v>1.373085319666117</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.192201641743096</v>
@@ -37179,7 +37029,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.399287293165168</v>
+        <v>1.376850345319696</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.185926391471368</v>
@@ -37268,7 +37118,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.382660711283673</v>
+        <v>1.36242728636471</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.068205673916899</v>
@@ -37357,7 +37207,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.393146029641475</v>
+        <v>1.377642669800476</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.111186767780964</v>
@@ -37446,7 +37296,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.366145970720343</v>
+        <v>1.358872640472859</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.166600579295627</v>
@@ -37535,7 +37385,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.385387122352894</v>
+        <v>1.380972749862431</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.080955868162893</v>
@@ -37624,7 +37474,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.389613676328878</v>
+        <v>1.371037418135211</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.093875982043405</v>
@@ -37713,7 +37563,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.375939457727942</v>
+        <v>1.354849784080384</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.271109889733697</v>
@@ -37802,7 +37652,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.362744195527499</v>
+        <v>1.339239547751775</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.331896358342222</v>
@@ -37891,7 +37741,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.348319276294493</v>
+        <v>1.323718576074913</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.295094451597928</v>
@@ -37980,7 +37830,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.358433273322638</v>
+        <v>1.333262645761221</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.338713843443948</v>
@@ -38069,7 +37919,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.358542114982244</v>
+        <v>1.331185399253913</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.365759448702838</v>
@@ -38158,7 +38008,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.340407559003902</v>
+        <v>1.313976744232638</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.420628512925246</v>
@@ -38247,7 +38097,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.348020420678276</v>
+        <v>1.316425450880626</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.289612977074155</v>
@@ -38336,7 +38186,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.35302464455926</v>
+        <v>1.321893246166561</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.37710203274021</v>
@@ -38425,7 +38275,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.368293974177704</v>
+        <v>1.338195937968344</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.427381554397354</v>
@@ -38514,7 +38364,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.367169384518626</v>
+        <v>1.335055642540069</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.18562579252362</v>
@@ -38603,7 +38453,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.382450303952818</v>
+        <v>1.34951693027547</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.313690778060923</v>
@@ -38692,7 +38542,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.371308746058044</v>
+        <v>1.344840308781241</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.469904699556968</v>
@@ -38781,7 +38631,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.38615473543004</v>
+        <v>1.359103122438537</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.513705705861735</v>
@@ -39067,7 +38917,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.388022500776478</v>
+        <v>1.402677402977657</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.161398925427687</v>
@@ -39156,7 +39006,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.380094178289972</v>
+        <v>1.391153759801982</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.099470749649771</v>
@@ -39245,7 +39095,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.387264928178483</v>
+        <v>1.397047880882661</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.959478390471755</v>
@@ -39334,7 +39184,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.424528205561495</v>
+        <v>1.43531557148899</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.067775665543494</v>
@@ -39423,7 +39273,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.425764079132458</v>
+        <v>1.435232227073046</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.080658042646458</v>
@@ -39512,7 +39362,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.447817064906757</v>
+        <v>1.451591276769139</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.998001433594737</v>
@@ -39601,7 +39451,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.445196226020419</v>
+        <v>1.44472732000151</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.131131389917827</v>
@@ -39690,7 +39540,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.400793316728332</v>
+        <v>1.405585085682257</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.099411345501017</v>
@@ -39779,7 +39629,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.412697162743959</v>
+        <v>1.410659309873104</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.107916268021794</v>
@@ -39868,7 +39718,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.411244941545087</v>
+        <v>1.404124435164421</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.139155833062988</v>
@@ -39957,7 +39807,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.411322524875569</v>
+        <v>1.414870383506502</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.177726717945759</v>
@@ -40046,7 +39896,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.447933314361394</v>
+        <v>1.454207534923237</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.160872721202767</v>
@@ -40135,7 +39985,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.442934625929778</v>
+        <v>1.445414166050008</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.095915464944439</v>
@@ -40224,7 +40074,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.458095807409614</v>
+        <v>1.458034668113332</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.193018103351701</v>
@@ -40313,7 +40163,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.482317625806539</v>
+        <v>1.482997193128498</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.263565601618751</v>
@@ -40402,7 +40252,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.472010091749842</v>
+        <v>1.473120691671045</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.308797655656504</v>
@@ -40491,7 +40341,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.459847151271895</v>
+        <v>1.461518365035621</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.091732608018255</v>
@@ -40580,7 +40430,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.457120741184335</v>
+        <v>1.458460147798295</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.096057757834393</v>
@@ -40669,7 +40519,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.457825301277041</v>
+        <v>1.46092783816973</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.151044839427598</v>
@@ -40758,7 +40608,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.467105438380753</v>
+        <v>1.468634651496388</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.115136101787876</v>
@@ -40847,7 +40697,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.47585425139995</v>
+        <v>1.480699416200288</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.059285280718524</v>
@@ -40936,7 +40786,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.46399349199056</v>
+        <v>1.476805087961277</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.994923930392024</v>
@@ -41025,7 +40875,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.485892725625132</v>
+        <v>1.50332081330305</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.145045791335566</v>
@@ -41114,7 +40964,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.465893203991039</v>
+        <v>1.483734271863975</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.162986496856725</v>
@@ -41203,7 +41053,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.460409317146838</v>
+        <v>1.476927338331058</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.093052619511613</v>
@@ -41292,7 +41142,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.468619145158816</v>
+        <v>1.483862057483168</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.204724304130909</v>
@@ -41381,7 +41231,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.453386721847417</v>
+        <v>1.462051894304712</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.253689558913246</v>
@@ -41470,7 +41320,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.447243511383834</v>
+        <v>1.461927793674885</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.23716907103074</v>
@@ -41559,7 +41409,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.444874553118044</v>
+        <v>1.458704626468095</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.259631023748054</v>
@@ -41648,7 +41498,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.416133097684198</v>
+        <v>1.428378972037686</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.278233224361402</v>
@@ -41737,7 +41587,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.409644852897677</v>
+        <v>1.421710271419448</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.208654126764705</v>
@@ -41826,7 +41676,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.416440904649043</v>
+        <v>1.429616363457686</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.285693086302714</v>
@@ -41915,7 +41765,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.428361052873383</v>
+        <v>1.445581079324119</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.325589413233065</v>
@@ -42004,7 +41854,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.427121054516574</v>
+        <v>1.443227921500991</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.321154875858498</v>
@@ -42093,7 +41943,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.396053716544324</v>
+        <v>1.412040891747569</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.272662785329443</v>
@@ -42182,7 +42032,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.412831807468384</v>
+        <v>1.426865042450782</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.126685947553405</v>
@@ -42271,7 +42121,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.405889009355604</v>
+        <v>1.415306667593151</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.216833442019028</v>
@@ -42360,7 +42210,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.41859737892229</v>
+        <v>1.416030384075353</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.145366355765286</v>
@@ -42449,7 +42299,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.389041358759725</v>
+        <v>1.395550949659645</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.252554492404176</v>
@@ -42538,7 +42388,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.39746664897889</v>
+        <v>1.403707019630824</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.155607686104793</v>
@@ -42627,7 +42477,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.380115608084802</v>
+        <v>1.391467586295797</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.180241249292767</v>
@@ -42716,7 +42566,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.399860168388691</v>
+        <v>1.410046046189</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.050869566205969</v>
@@ -42805,7 +42655,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.397414141393669</v>
+        <v>1.409697693906537</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.138125094971753</v>
@@ -42894,7 +42744,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.36494131989683</v>
+        <v>1.374973735050942</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.139274566561467</v>
@@ -42983,7 +42833,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.393081992689258</v>
+        <v>1.404235427543961</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.143642767248642</v>
@@ -43072,7 +42922,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.40681530983846</v>
+        <v>1.417603660952253</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.986782716571708</v>
@@ -43161,7 +43011,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.421397391031268</v>
+        <v>1.429114666139249</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.066891476425716</v>
@@ -43250,7 +43100,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.393187720300562</v>
+        <v>1.402310711841667</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.047493286024496</v>
@@ -43339,7 +43189,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.365342491571096</v>
+        <v>1.374781241478553</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.062342518344801</v>
@@ -43428,7 +43278,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.36344770681083</v>
+        <v>1.375377088026828</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.100839531109962</v>
@@ -43517,7 +43367,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.354217135580946</v>
+        <v>1.367528766955729</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.979989342852331</v>
@@ -43606,7 +43456,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.372634743713143</v>
+        <v>1.393656078878961</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.023125603729213</v>
@@ -43695,7 +43545,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.344354183005841</v>
+        <v>1.368226983042925</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.020332782634508</v>
@@ -43784,7 +43634,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.365814978496408</v>
+        <v>1.385839814121833</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.977380542023254</v>
@@ -43873,7 +43723,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.35706430611476</v>
+        <v>1.371912393395891</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.975621640151101</v>
@@ -43962,7 +43812,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.366570688357652</v>
+        <v>1.378451979980079</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.159439375073232</v>
@@ -44051,7 +43901,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.364830364052783</v>
+        <v>1.376335344761896</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.153807138070757</v>
@@ -44140,7 +43990,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.358815934374091</v>
+        <v>1.366800885692423</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.104513234319281</v>
@@ -44229,7 +44079,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.376284737486414</v>
+        <v>1.383997679713362</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.283907752654642</v>
@@ -44318,7 +44168,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.366964526297905</v>
+        <v>1.37546869675737</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.288750267496088</v>
@@ -44407,7 +44257,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.343381176479984</v>
+        <v>1.351529764829522</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.329347370177087</v>
@@ -44496,7 +44346,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.353891659085462</v>
+        <v>1.362870118914978</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.318713257804995</v>
@@ -44585,7 +44435,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.355633035518369</v>
+        <v>1.36514590991419</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.13064229254348</v>
@@ -44674,7 +44524,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.384376226042446</v>
+        <v>1.393649581065161</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.219672854941072</v>
@@ -44763,7 +44613,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.385398944842022</v>
+        <v>1.396191812970778</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.297726101561059</v>
@@ -44852,7 +44702,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.391165832683055</v>
+        <v>1.4004480128322</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.280602340118477</v>
@@ -44941,7 +44791,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.3663003350451</v>
+        <v>1.37605513922365</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.171542785206353</v>
@@ -45030,7 +44880,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.387338284145189</v>
+        <v>1.397178567259434</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.154702015118382</v>
